--- a/src/main/resources/123-madao_service/service-user_structure.xlsx
+++ b/src/main/resources/123-madao_service/service-user_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="278">
   <si>
     <t>类名</t>
   </si>
@@ -64,7 +64,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>handle(javax.servlet.http.HttpServletRequest)</t>
+    <t>handle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.access.AccessDeniedException)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
@@ -100,13 +100,13 @@
     <t>com.madao.user.handler.CustomAuthenticationEntryPoint</t>
   </si>
   <si>
-    <t>commence(javax.servlet.http.HttpServletRequest)</t>
+    <t>commence(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.core.AuthenticationException)</t>
   </si>
   <si>
     <t>com.madao.user.handler.BarrageSocketEventHandler</t>
   </si>
   <si>
-    <t>onEvent(com.corundumstudio.socketio.SocketIOClient)</t>
+    <t>onEvent(com.corundumstudio.socketio.SocketIOClient,com.corundumstudio.socketio.AckRequest,com.madao.model.dto.BarrageMessage)</t>
   </si>
   <si>
     <t>sendBroadcast()</t>
@@ -121,10 +121,10 @@
     <t>com.madao.user.listener.ReceiveConsumer</t>
   </si>
   <si>
-    <t>deadHandler(org.springframework.amqp.core.Message)</t>
-  </si>
-  <si>
-    <t>queueOne(com.rabbitmq.client.Channel)</t>
+    <t>deadHandler(org.springframework.amqp.core.Message,com.rabbitmq.client.Channel)</t>
+  </si>
+  <si>
+    <t>queueOne(com.madao.model.entity.user.User,java.lang.Long,com.rabbitmq.client.Channel)</t>
   </si>
   <si>
     <t>com.madao.user.listener.SmsListener</t>
@@ -208,7 +208,7 @@
     <t>com.madao.user.config.WsSessionManager</t>
   </si>
   <si>
-    <t>add(com.corundumstudio.socketio.SocketIOClient)</t>
+    <t>add(java.lang.String,com.corundumstudio.socketio.SocketIOClient)</t>
   </si>
   <si>
     <t>getAllSession()</t>
@@ -463,22 +463,22 @@
     <t>com.madao.user.mq.UserQueueHandler</t>
   </si>
   <si>
-    <t>queueOne(org.springframework.amqp.core.Message)</t>
-  </si>
-  <si>
-    <t>isACK(org.springframework.amqp.core.Message)</t>
+    <t>queueOne(org.springframework.amqp.core.Message,com.rabbitmq.client.Channel)</t>
+  </si>
+  <si>
+    <t>isACK(org.springframework.amqp.core.Message,com.rabbitmq.client.Channel,java.util.concurrent.atomic.AtomicBoolean)</t>
   </si>
   <si>
     <t>com.madao.user.filter.JwtFilter</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>afterCompletion(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>postHandle(javax.servlet.http.HttpServletRequest)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
+  </si>
+  <si>
+    <t>afterCompletion(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object,java.lang.Exception)</t>
+  </si>
+  <si>
+    <t>postHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object,org.springframework.web.servlet.ModelAndView)</t>
   </si>
   <si>
     <t>com.madao.user.service.UserService</t>
@@ -496,7 +496,7 @@
     <t>changePassword(java.lang.String,java.lang.String,java.lang.String)</t>
   </si>
   <si>
-    <t>lambda$findByCondition$8dbbebe3$1(javax.persistence.criteria.Root)</t>
+    <t>lambda$findByCondition$8dbbebe3$1(java.lang.String,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>javax.persistence.criteria.Predicate</t>
@@ -508,7 +508,7 @@
     <t>findByIds(java.util.List)</t>
   </si>
   <si>
-    <t>findByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findByCondition(com.madao.model.dto.user.UserDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>org.springframework.data.domain.Page</t>
@@ -541,7 +541,7 @@
     <t>registerUser(com.madao.model.dto.user.UserDto)</t>
   </si>
   <si>
-    <t>lambda$findByCondition$230c7254$1(javax.persistence.criteria.Root)</t>
+    <t>lambda$findByCondition$230c7254$1(com.madao.model.dto.user.UserDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>com.madao.user.service.RoleService</t>
@@ -601,7 +601,7 @@
     <t>saveOrUpdate(com.madao.model.dto.user.ResourceDto)</t>
   </si>
   <si>
-    <t>lambda$findResourceByCondition$93f8708a$1(javax.persistence.criteria.Root)</t>
+    <t>lambda$findResourceByCondition$93f8708a$1(com.madao.model.dto.user.ResourceDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>lambda$saveOrUpdate$0(com.madao.model.dto.user.ResourceDto,com.madao.model.dto.user.RoleDto)</t>
@@ -778,7 +778,7 @@
     <t>getUserInfo(org.springframework.security.core.Authentication)</t>
   </si>
   <si>
-    <t>updateByPrimaryKey(org.springframework.security.core.Authentication)</t>
+    <t>updateByPrimaryKey(com.madao.model.dto.user.UserDto,org.springframework.security.core.Authentication)</t>
   </si>
   <si>
     <t>findAdminInfo()</t>
@@ -9211,7 +9211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9293,10 +9293,10 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>271</v>
@@ -9310,10 +9310,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
         <v>271</v>
@@ -9321,16 +9321,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>271</v>
@@ -9338,16 +9338,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>271</v>
@@ -9355,16 +9355,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>271</v>
@@ -9375,13 +9375,13 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>271</v>
@@ -9398,7 +9398,7 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>271</v>
@@ -9415,7 +9415,7 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
         <v>271</v>
@@ -9423,16 +9423,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>271</v>
@@ -9443,13 +9443,13 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>271</v>
@@ -9457,16 +9457,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>271</v>
@@ -9477,13 +9477,13 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
         <v>271</v>
@@ -9494,7 +9494,7 @@
         <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>122</v>
@@ -9511,7 +9511,7 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
         <v>122</v>
@@ -9528,13 +9528,13 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>271</v>
@@ -9542,16 +9542,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
         <v>271</v>
@@ -9562,13 +9562,13 @@
         <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>271</v>
@@ -9579,7 +9579,7 @@
         <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
         <v>126</v>
@@ -9596,7 +9596,7 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>126</v>
@@ -9613,13 +9613,13 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>271</v>
@@ -9627,16 +9627,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
         <v>271</v>
@@ -9647,13 +9647,13 @@
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
         <v>271</v>
@@ -9664,7 +9664,7 @@
         <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -9681,7 +9681,7 @@
         <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -9698,13 +9698,13 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
         <v>271</v>
@@ -9712,16 +9712,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>271</v>
@@ -9729,16 +9729,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
         <v>271</v>
@@ -9749,13 +9749,13 @@
         <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
         <v>271</v>
@@ -9766,13 +9766,13 @@
         <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
         <v>271</v>
@@ -9783,13 +9783,13 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
         <v>271</v>
@@ -9800,13 +9800,13 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
         <v>271</v>
@@ -9817,13 +9817,13 @@
         <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
         <v>271</v>
@@ -9834,13 +9834,13 @@
         <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
         <v>271</v>
@@ -9851,13 +9851,13 @@
         <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
         <v>271</v>
@@ -9868,7 +9868,7 @@
         <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
         <v>109</v>
@@ -9885,13 +9885,13 @@
         <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
         <v>271</v>
@@ -9902,13 +9902,13 @@
         <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>271</v>
@@ -9922,10 +9922,10 @@
         <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
         <v>271</v>
@@ -9936,13 +9936,13 @@
         <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
         <v>271</v>
@@ -9953,13 +9953,13 @@
         <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>271</v>
@@ -9973,10 +9973,10 @@
         <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
         <v>271</v>
@@ -9987,13 +9987,13 @@
         <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
         <v>271</v>
@@ -10004,13 +10004,13 @@
         <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
         <v>271</v>
@@ -10018,16 +10018,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
         <v>271</v>
@@ -10035,16 +10035,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
         <v>271</v>
@@ -10055,13 +10055,13 @@
         <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
         <v>271</v>
@@ -10072,13 +10072,13 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>271</v>
@@ -10089,13 +10089,13 @@
         <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>271</v>
@@ -10109,10 +10109,10 @@
         <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
         <v>271</v>
@@ -10123,13 +10123,13 @@
         <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>271</v>
@@ -10140,13 +10140,13 @@
         <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>271</v>
@@ -10160,10 +10160,10 @@
         <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
         <v>271</v>
@@ -10171,16 +10171,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
         <v>271</v>
@@ -10188,16 +10188,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>271</v>
@@ -10208,13 +10208,13 @@
         <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
         <v>271</v>
@@ -10225,13 +10225,13 @@
         <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
         <v>271</v>
@@ -10242,13 +10242,13 @@
         <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
         <v>271</v>
@@ -10259,13 +10259,13 @@
         <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
         <v>271</v>
@@ -10276,13 +10276,13 @@
         <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
         <v>271</v>
@@ -10293,7 +10293,7 @@
         <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
         <v>120</v>
@@ -10310,13 +10310,13 @@
         <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
         <v>271</v>
@@ -10327,13 +10327,13 @@
         <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
         <v>271</v>
@@ -10344,13 +10344,13 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
         <v>271</v>
@@ -10361,13 +10361,13 @@
         <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
         <v>271</v>
@@ -10378,7 +10378,7 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>94</v>
@@ -10395,13 +10395,13 @@
         <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
         <v>271</v>
@@ -10409,16 +10409,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
         <v>271</v>
@@ -10426,16 +10426,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
         <v>271</v>
@@ -10446,13 +10446,13 @@
         <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
         <v>271</v>
@@ -10463,13 +10463,13 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
         <v>271</v>
@@ -10480,13 +10480,13 @@
         <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
         <v>271</v>
@@ -10497,15 +10497,49 @@
         <v>191</v>
       </c>
       <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" t="s">
         <v>196</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>121</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>116</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10516,7 +10550,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11037,13 +11071,13 @@
         <v>258</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
         <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>271</v>
@@ -11054,13 +11088,13 @@
         <v>258</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
         <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
         <v>271</v>
@@ -11071,13 +11105,13 @@
         <v>258</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
         <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
         <v>271</v>
@@ -11088,15 +11122,32 @@
         <v>258</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
         <v>153</v>
       </c>
       <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
         <v>161</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>271</v>
       </c>
     </row>
